--- a/uploads/年假系统角色表.xlsx
+++ b/uploads/年假系统角色表.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$59</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="166">
   <si>
     <t>市场部</t>
   </si>
@@ -539,6 +539,21 @@
   <si>
     <t>320586198002013939</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯雪香</t>
+  </si>
+  <si>
+    <t>440603199101193847</t>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>人力资源部</t>
+  </si>
+  <si>
+    <t>人力资源部/市场部/财务部</t>
   </si>
 </sst>
 </file>
@@ -865,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1083,7 @@
         <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
         <v>157</v>
@@ -1702,6 +1717,20 @@
       </c>
       <c r="D59" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
